--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Inhba-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Inhba</t>
+  </si>
+  <si>
+    <t>Eng</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Inhba</t>
-  </si>
-  <si>
-    <t>Eng</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H2">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I2">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J2">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N2">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O2">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P2">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q2">
-        <v>51.21111595783201</v>
+        <v>622.2477139480093</v>
       </c>
       <c r="R2">
-        <v>460.900043620488</v>
+        <v>5600.229425532084</v>
       </c>
       <c r="S2">
-        <v>0.01777389209738559</v>
+        <v>0.6397928977459133</v>
       </c>
       <c r="T2">
-        <v>0.02254177905648102</v>
+        <v>0.6443920128434961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H3">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I3">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J3">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>146.311485</v>
       </c>
       <c r="O3">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P3">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q3">
-        <v>12.24705162242</v>
+        <v>182.38272834794</v>
       </c>
       <c r="R3">
-        <v>110.22346460178</v>
+        <v>1641.44455513146</v>
       </c>
       <c r="S3">
-        <v>0.004250596183595047</v>
+        <v>0.1875252759518918</v>
       </c>
       <c r="T3">
-        <v>0.005390828272385812</v>
+        <v>0.1888732908030214</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H4">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I4">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J4">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N4">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O4">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P4">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q4">
-        <v>1.814486118924</v>
+        <v>27.683835309156</v>
       </c>
       <c r="R4">
-        <v>16.330375070316</v>
+        <v>249.154517782404</v>
       </c>
       <c r="S4">
-        <v>0.0006297554717712976</v>
+        <v>0.0284644215095428</v>
       </c>
       <c r="T4">
-        <v>0.0007986888086468502</v>
+        <v>0.02866903639534368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H5">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I5">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J5">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N5">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O5">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P5">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q5">
-        <v>5.493031040774</v>
+        <v>19.142772789234</v>
       </c>
       <c r="R5">
-        <v>32.958186244644</v>
+        <v>114.856636735404</v>
       </c>
       <c r="S5">
-        <v>0.001906471655230063</v>
+        <v>0.01968253124789937</v>
       </c>
       <c r="T5">
-        <v>0.001611924673717023</v>
+        <v>0.01321601200781684</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.251116</v>
+        <v>3.739612</v>
       </c>
       <c r="H6">
-        <v>0.753348</v>
+        <v>11.218836</v>
       </c>
       <c r="I6">
-        <v>0.02499663796234737</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="J6">
-        <v>0.03089608058175258</v>
+        <v>0.9192540781997663</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N6">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O6">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P6">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q6">
-        <v>1.256004051218667</v>
+        <v>42.58811752241067</v>
       </c>
       <c r="R6">
-        <v>11.304036460968</v>
+        <v>383.2930577016961</v>
       </c>
       <c r="S6">
-        <v>0.0004359225543653787</v>
+        <v>0.04378895174451898</v>
       </c>
       <c r="T6">
-        <v>0.0005528597705218773</v>
+        <v>0.04410372615008845</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H7">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I7">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J7">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N7">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O7">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P7">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q7">
-        <v>762.634415048424</v>
+        <v>40.682250611562</v>
       </c>
       <c r="R7">
-        <v>6863.709735435817</v>
+        <v>366.140255504058</v>
       </c>
       <c r="S7">
-        <v>0.2646882722490335</v>
+        <v>0.04182934613042458</v>
       </c>
       <c r="T7">
-        <v>0.3356915029745818</v>
+        <v>0.04213003402175353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H8">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I8">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J8">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>146.311485</v>
       </c>
       <c r="O8">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P8">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q8">
-        <v>182.38272834794</v>
+        <v>11.92409340453</v>
       </c>
       <c r="R8">
-        <v>1641.44455513146</v>
+        <v>107.31684064077</v>
       </c>
       <c r="S8">
-        <v>0.06329975188887303</v>
+        <v>0.0122603106468216</v>
       </c>
       <c r="T8">
-        <v>0.08028005422734215</v>
+        <v>0.01234844319720706</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H9">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I9">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J9">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N9">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O9">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P9">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q9">
-        <v>27.021273292668</v>
+        <v>1.809955586322</v>
       </c>
       <c r="R9">
-        <v>243.191459634012</v>
+        <v>16.289600276898</v>
       </c>
       <c r="S9">
-        <v>0.009378299747135209</v>
+        <v>0.001860989929584715</v>
       </c>
       <c r="T9">
-        <v>0.01189404997324529</v>
+        <v>0.001874367550548869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H10">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I10">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J10">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N10">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O10">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P10">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q10">
-        <v>81.80205481311799</v>
+        <v>1.251545104233</v>
       </c>
       <c r="R10">
-        <v>490.812328878708</v>
+        <v>7.509270625398001</v>
       </c>
       <c r="S10">
-        <v>0.02839111916229236</v>
+        <v>0.00128683424775723</v>
       </c>
       <c r="T10">
-        <v>0.02400473427789652</v>
+        <v>0.0008640563886946482</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>3.739612</v>
+        <v>0.244494</v>
       </c>
       <c r="H11">
-        <v>11.218836</v>
+        <v>0.733482</v>
       </c>
       <c r="I11">
-        <v>0.3722491887559923</v>
+        <v>0.06010038116130061</v>
       </c>
       <c r="J11">
-        <v>0.4601035127052395</v>
+        <v>0.0601003811613006</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N11">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O11">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P11">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q11">
-        <v>18.70437495813066</v>
+        <v>2.784390253728</v>
       </c>
       <c r="R11">
-        <v>168.339374623176</v>
+        <v>25.059512283552</v>
       </c>
       <c r="S11">
-        <v>0.00649174570865824</v>
+        <v>0.002862900206712468</v>
       </c>
       <c r="T11">
-        <v>0.008233171252173731</v>
+        <v>0.002883480003096505</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H12">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I12">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J12">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>203.934102</v>
+        <v>166.3936563333333</v>
       </c>
       <c r="N12">
-        <v>611.802306</v>
+        <v>499.180969</v>
       </c>
       <c r="O12">
-        <v>0.7110513071461264</v>
+        <v>0.6959913618211631</v>
       </c>
       <c r="P12">
-        <v>0.7295999567593805</v>
+        <v>0.7009944564025758</v>
       </c>
       <c r="Q12">
-        <v>8.647961551378001</v>
+        <v>13.975070408124</v>
       </c>
       <c r="R12">
-        <v>77.831653962402</v>
+        <v>125.775633673116</v>
       </c>
       <c r="S12">
-        <v>0.00300145647290907</v>
+        <v>0.01436911794482523</v>
       </c>
       <c r="T12">
-        <v>0.003806603994738614</v>
+        <v>0.01447240953732622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H13">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I13">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J13">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>146.311485</v>
       </c>
       <c r="O13">
-        <v>0.1700467154822082</v>
+        <v>0.2039972194837954</v>
       </c>
       <c r="P13">
-        <v>0.174482593613174</v>
+        <v>0.2054636419703505</v>
       </c>
       <c r="Q13">
-        <v>2.068145354138334</v>
+        <v>4.096136334060001</v>
       </c>
       <c r="R13">
-        <v>18.613308187245</v>
+        <v>36.86522700654</v>
       </c>
       <c r="S13">
-        <v>0.0007177932306031359</v>
+        <v>0.004211632885082059</v>
       </c>
       <c r="T13">
-        <v>0.0009103428964145466</v>
+        <v>0.004241907970122077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H14">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I14">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J14">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.225689</v>
+        <v>7.402863</v>
       </c>
       <c r="N14">
-        <v>21.677067</v>
+        <v>22.208589</v>
       </c>
       <c r="O14">
-        <v>0.02519360694505809</v>
+        <v>0.03096469429353687</v>
       </c>
       <c r="P14">
-        <v>0.02585081322964185</v>
+        <v>0.03118728224898178</v>
       </c>
       <c r="Q14">
-        <v>0.306410159171</v>
+        <v>0.6217516576440001</v>
       </c>
       <c r="R14">
-        <v>2.757691432539</v>
+        <v>5.595764918796</v>
       </c>
       <c r="S14">
-        <v>0.0001063460735972342</v>
+        <v>0.000639282854409356</v>
       </c>
       <c r="T14">
-        <v>0.0001348736495877421</v>
+        <v>0.0006438783030892311</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H15">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I15">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J15">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.8744765</v>
+        <v>5.118919500000001</v>
       </c>
       <c r="N15">
-        <v>43.748953</v>
+        <v>10.237839</v>
       </c>
       <c r="O15">
-        <v>0.07626912299573232</v>
+        <v>0.02141141574965316</v>
       </c>
       <c r="P15">
-        <v>0.05217246470638207</v>
+        <v>0.0143768870013594</v>
       </c>
       <c r="Q15">
-        <v>0.9276017589668334</v>
+        <v>0.4299278109660001</v>
       </c>
       <c r="R15">
-        <v>5.565610553801</v>
+        <v>2.579566865796</v>
       </c>
       <c r="S15">
-        <v>0.0003219436496325775</v>
+        <v>0.000442050253996557</v>
       </c>
       <c r="T15">
-        <v>0.0002722038436635638</v>
+        <v>0.000296818604847915</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.04240566666666667</v>
+        <v>0.08398800000000001</v>
       </c>
       <c r="H16">
-        <v>0.127217</v>
+        <v>0.251964</v>
       </c>
       <c r="I16">
-        <v>0.004221153161163162</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="J16">
-        <v>0.005217385170424316</v>
+        <v>0.02064554063893313</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.001688666666666</v>
+        <v>11.38837866666667</v>
       </c>
       <c r="N16">
-        <v>15.005066</v>
+        <v>34.165136</v>
       </c>
       <c r="O16">
-        <v>0.01743924743087499</v>
+        <v>0.04763530865185137</v>
       </c>
       <c r="P16">
-        <v>0.01789417169142159</v>
+        <v>0.04797773237673265</v>
       </c>
       <c r="Q16">
-        <v>0.2120999423691111</v>
+        <v>0.9564871474560002</v>
       </c>
       <c r="R16">
-        <v>1.908899481322</v>
+        <v>8.608384327104002</v>
       </c>
       <c r="S16">
-        <v>7.361373442114453E-05</v>
+        <v>0.0009834567006199201</v>
       </c>
       <c r="T16">
-        <v>9.33607860198496E-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>5.754686</v>
-      </c>
-      <c r="H17">
-        <v>11.509372</v>
-      </c>
-      <c r="I17">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J17">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>203.934102</v>
-      </c>
-      <c r="N17">
-        <v>611.802306</v>
-      </c>
-      <c r="O17">
-        <v>0.7110513071461264</v>
-      </c>
-      <c r="P17">
-        <v>0.7295999567593805</v>
-      </c>
-      <c r="Q17">
-        <v>1173.576721701972</v>
-      </c>
-      <c r="R17">
-        <v>7041.460330211832</v>
-      </c>
-      <c r="S17">
-        <v>0.4073144205002288</v>
-      </c>
-      <c r="T17">
-        <v>0.344384959809874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>5.754686</v>
-      </c>
-      <c r="H18">
-        <v>11.509372</v>
-      </c>
-      <c r="I18">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J18">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>48.770495</v>
-      </c>
-      <c r="N18">
-        <v>146.311485</v>
-      </c>
-      <c r="O18">
-        <v>0.1700467154822082</v>
-      </c>
-      <c r="P18">
-        <v>0.174482593613174</v>
-      </c>
-      <c r="Q18">
-        <v>280.65888478957</v>
-      </c>
-      <c r="R18">
-        <v>1683.95330873742</v>
-      </c>
-      <c r="S18">
-        <v>0.09740855361421752</v>
-      </c>
-      <c r="T18">
-        <v>0.08235907970155311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>5.754686</v>
-      </c>
-      <c r="H19">
-        <v>11.509372</v>
-      </c>
-      <c r="I19">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J19">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.225689</v>
-      </c>
-      <c r="N19">
-        <v>21.677067</v>
-      </c>
-      <c r="O19">
-        <v>0.02519360694505809</v>
-      </c>
-      <c r="P19">
-        <v>0.02585081322964185</v>
-      </c>
-      <c r="Q19">
-        <v>41.58157132865399</v>
-      </c>
-      <c r="R19">
-        <v>249.489427971924</v>
-      </c>
-      <c r="S19">
-        <v>0.01443175662572548</v>
-      </c>
-      <c r="T19">
-        <v>0.012202072098092</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>5.754686</v>
-      </c>
-      <c r="H20">
-        <v>11.509372</v>
-      </c>
-      <c r="I20">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J20">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>21.8744765</v>
-      </c>
-      <c r="N20">
-        <v>43.748953</v>
-      </c>
-      <c r="O20">
-        <v>0.07626912299573232</v>
-      </c>
-      <c r="P20">
-        <v>0.05217246470638207</v>
-      </c>
-      <c r="Q20">
-        <v>125.880743671879</v>
-      </c>
-      <c r="R20">
-        <v>503.522974687516</v>
-      </c>
-      <c r="S20">
-        <v>0.04368955281124768</v>
-      </c>
-      <c r="T20">
-        <v>0.02462638874170747</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>5.754686</v>
-      </c>
-      <c r="H21">
-        <v>11.509372</v>
-      </c>
-      <c r="I21">
-        <v>0.572834078788245</v>
-      </c>
-      <c r="J21">
-        <v>0.4720188873632993</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.001688666666666</v>
-      </c>
-      <c r="N21">
-        <v>15.005066</v>
-      </c>
-      <c r="O21">
-        <v>0.01743924743087499</v>
-      </c>
-      <c r="P21">
-        <v>0.01789417169142159</v>
-      </c>
-      <c r="Q21">
-        <v>28.78314774642533</v>
-      </c>
-      <c r="R21">
-        <v>172.698886478552</v>
-      </c>
-      <c r="S21">
-        <v>0.009989795236825545</v>
-      </c>
-      <c r="T21">
-        <v>0.008446387012072665</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.774514</v>
-      </c>
-      <c r="I22">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J22">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>203.934102</v>
-      </c>
-      <c r="N22">
-        <v>611.802306</v>
-      </c>
-      <c r="O22">
-        <v>0.7110513071461264</v>
-      </c>
-      <c r="P22">
-        <v>0.7295999567593805</v>
-      </c>
-      <c r="Q22">
-        <v>52.64993902547602</v>
-      </c>
-      <c r="R22">
-        <v>473.8494512292841</v>
-      </c>
-      <c r="S22">
-        <v>0.01827326582656952</v>
-      </c>
-      <c r="T22">
-        <v>0.02317511092370503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H23">
-        <v>0.774514</v>
-      </c>
-      <c r="I23">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J23">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>48.770495</v>
-      </c>
-      <c r="N23">
-        <v>146.311485</v>
-      </c>
-      <c r="O23">
-        <v>0.1700467154822082</v>
-      </c>
-      <c r="P23">
-        <v>0.174482593613174</v>
-      </c>
-      <c r="Q23">
-        <v>12.59114372147667</v>
-      </c>
-      <c r="R23">
-        <v>113.32029349329</v>
-      </c>
-      <c r="S23">
-        <v>0.004370020564919446</v>
-      </c>
-      <c r="T23">
-        <v>0.005542288515478405</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H24">
-        <v>0.774514</v>
-      </c>
-      <c r="I24">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J24">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>7.225689</v>
-      </c>
-      <c r="N24">
-        <v>21.677067</v>
-      </c>
-      <c r="O24">
-        <v>0.02519360694505809</v>
-      </c>
-      <c r="P24">
-        <v>0.02585081322964185</v>
-      </c>
-      <c r="Q24">
-        <v>1.865465763382</v>
-      </c>
-      <c r="R24">
-        <v>16.789191870438</v>
-      </c>
-      <c r="S24">
-        <v>0.0006474490268288689</v>
-      </c>
-      <c r="T24">
-        <v>0.0008211287000699631</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H25">
-        <v>0.774514</v>
-      </c>
-      <c r="I25">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J25">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>21.8744765</v>
-      </c>
-      <c r="N25">
-        <v>43.748953</v>
-      </c>
-      <c r="O25">
-        <v>0.07626912299573232</v>
-      </c>
-      <c r="P25">
-        <v>0.05217246470638207</v>
-      </c>
-      <c r="Q25">
-        <v>5.647362763973668</v>
-      </c>
-      <c r="R25">
-        <v>33.884176583842</v>
-      </c>
-      <c r="S25">
-        <v>0.00196003571732965</v>
-      </c>
-      <c r="T25">
-        <v>0.001657213169397498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.2581713333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.774514</v>
-      </c>
-      <c r="I26">
-        <v>0.02569894133225218</v>
-      </c>
-      <c r="J26">
-        <v>0.03176413417928436</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>5.001688666666666</v>
-      </c>
-      <c r="N26">
-        <v>15.005066</v>
-      </c>
-      <c r="O26">
-        <v>0.01743924743087499</v>
-      </c>
-      <c r="P26">
-        <v>0.01789417169142159</v>
-      </c>
-      <c r="Q26">
-        <v>1.291292631991556</v>
-      </c>
-      <c r="R26">
-        <v>11.621633687924</v>
-      </c>
-      <c r="S26">
-        <v>0.0004481701966046859</v>
-      </c>
-      <c r="T26">
-        <v>0.0005683928706334673</v>
+        <v>0.0009905262235476915</v>
       </c>
     </row>
   </sheetData>
